--- a/2018_data/Jeremy_McNichols2018.xlsx
+++ b/2018_data/Jeremy_McNichols2018.xlsx
@@ -12,41 +12,6 @@
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="10">
-  <si>
-    <t>https://www.pro-football-reference.com/players/M/McNiJe00/gamelog/2018/</t>
-  </si>
-  <si>
-    <t>2018-09-30</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>22.278</t>
-  </si>
-  <si>
-    <t>IND</t>
-  </si>
-  <si>
-    <t>HOU</t>
-  </si>
-  <si>
-    <t>L 34-37</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>2.00</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -380,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M1"/>
+  <dimension ref="A1:P1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -388,41 +353,76 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s"/>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" t="s"/>
-      <c r="J1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" t="s">
-        <v>2</v>
-      </c>
-      <c r="L1" t="s">
-        <v>8</v>
-      </c>
-      <c r="M1" t="s">
-        <v>9</v>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>McNichols</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Jeremy</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>RB</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>2018-09-30</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>22.278</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>IND</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr"/>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>HOU</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>L 34-37</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr"/>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P1" t="n">
+        <v>0.4</v>
       </c>
     </row>
   </sheetData>
